--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Document\Learning\Enlish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Document\GitSyncDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="0" windowWidth="27405" windowHeight="12885"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="27405" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="346">
   <si>
     <t>Absence</t>
   </si>
@@ -1182,6 +1182,9 @@
     <t>در نظر گرفتن
 فکر کردن
 سنجیدن</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -1347,15 +1350,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1363,6 +1357,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,13 +1649,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.85546875" style="18" customWidth="1"/>
     <col min="4" max="4" width="153.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
@@ -1688,7 +1691,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>282</v>
       </c>
       <c r="B2" s="15"/>
@@ -1703,7 +1706,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="2" t="s">
@@ -1734,7 +1737,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="25" t="s">
         <v>299</v>
       </c>
       <c r="B5" s="15"/>
@@ -1751,7 +1754,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="21" t="s">
@@ -1764,7 +1767,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="2" t="s">
@@ -1777,7 +1780,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="2" t="s">
@@ -1790,7 +1793,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="2" t="s">
@@ -1803,7 +1806,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="2" t="s">
@@ -1818,7 +1821,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="2" t="s">
@@ -1834,7 +1837,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="2" t="s">
@@ -1872,7 +1875,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="25" t="s">
         <v>245</v>
       </c>
       <c r="B14" s="16"/>
@@ -1890,7 +1893,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2" t="s">
@@ -1931,7 +1934,7 @@
       <c r="D17" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="23" t="s">
         <v>304</v>
       </c>
       <c r="F17" s="2"/>
@@ -1955,7 +1958,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="27" t="s">
         <v>274</v>
       </c>
       <c r="B19" s="15"/>
@@ -1970,7 +1973,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="2" t="s">
@@ -1985,7 +1988,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="2" t="s">
@@ -1998,7 +2001,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="25" t="s">
         <v>249</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -2015,7 +2018,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="20" t="s">
         <v>251</v>
       </c>
@@ -2104,7 +2107,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="25" t="s">
         <v>196</v>
       </c>
       <c r="B29" s="15"/>
@@ -2122,7 +2125,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="2" t="s">
@@ -2140,7 +2143,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="2" t="s">
@@ -2280,7 +2283,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="24" t="s">
         <v>226</v>
       </c>
       <c r="B39" s="17"/>
@@ -2298,7 +2301,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="5" t="s">
@@ -2498,7 +2501,9 @@
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="1"/>
